--- a/Project-Management/Timesheets/Ruwen-YI/Timetsheet-w7.xlsx
+++ b/Project-Management/Timesheets/Ruwen-YI/Timetsheet-w7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2022_MCI_Sem1\MCIP\timesheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0.WebProject\mci-master\Project-Management\Timesheets\Ruwen-YI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1721407-DF8D-4A63-B37B-5FD387D142B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A691E2C8-DC2B-47F1-ABEF-39A8D6C28F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2676" yWindow="1212" windowWidth="17064" windowHeight="10656" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17064" windowHeight="10656" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>MCI Project Weekly Time Sheet</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>To fulfill milestone 1</t>
+  </si>
+  <si>
+    <t>This week I spent less time on MCI project. The reason is that, I, responsible for back end development, has achieved all the required product in back end. And it turns out that back end is developed much faster than front end. There are still some works in back end need to wait until front end can finish something. So I expect next week front end members can make some progress so that the back end can continue.</t>
   </si>
 </sst>
 </file>
@@ -348,7 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -421,26 +424,29 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -785,10 +791,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AW14"/>
+  <dimension ref="A2:AW22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -804,16 +810,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:49" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -1013,10 +1019,10 @@
       <c r="AW7" s="5"/>
     </row>
     <row r="8" spans="1:49" s="6" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="28">
         <v>44678</v>
       </c>
       <c r="C8" s="16">
@@ -1025,7 +1031,7 @@
       <c r="D8" s="16">
         <v>0.50694444444444442</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="30">
         <v>5</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -1080,15 +1086,15 @@
       <c r="AW8" s="5"/>
     </row>
     <row r="9" spans="1:49" s="6" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="16">
         <v>0.125</v>
       </c>
       <c r="D9" s="16">
         <v>0.18055555555555555</v>
       </c>
-      <c r="E9" s="30"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="21" t="s">
         <v>35</v>
       </c>
@@ -1141,10 +1147,10 @@
       <c r="AW9" s="5"/>
     </row>
     <row r="10" spans="1:49" s="6" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="28">
         <v>44679</v>
       </c>
       <c r="C10" s="16">
@@ -1153,7 +1159,7 @@
       <c r="D10" s="16">
         <v>0.5</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="30">
         <v>1.3</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -1208,15 +1214,15 @@
       <c r="AW10" s="5"/>
     </row>
     <row r="11" spans="1:49" s="6" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
-      <c r="B11" s="28"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="16">
         <v>0.58333333333333337</v>
       </c>
       <c r="D11" s="16">
         <v>0.59513888888888888</v>
       </c>
-      <c r="E11" s="30"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="7" t="s">
         <v>32</v>
       </c>
@@ -1410,6 +1416,10 @@
         <f>SUM(E6:E13)</f>
         <v>15.3</v>
       </c>
+      <c r="F14" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="33"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1417,8 +1427,34 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
+    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+    </row>
+    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+    </row>
+    <row r="20" spans="6:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+    </row>
+    <row r="22" spans="6:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="F14:G20"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="E10:E11"/>

--- a/Project-Management/Timesheets/Ruwen-YI/Timetsheet-w7.xlsx
+++ b/Project-Management/Timesheets/Ruwen-YI/Timetsheet-w7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0.WebProject\mci-master\Project-Management\Timesheets\Ruwen-YI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A691E2C8-DC2B-47F1-ABEF-39A8D6C28F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A431B52C-F111-462A-9B68-ECC0130A90A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17064" windowHeight="10656" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5976" yWindow="1032" windowWidth="17064" windowHeight="10656" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -155,7 +155,7 @@
     <t>To fulfill milestone 1</t>
   </si>
   <si>
-    <t>This week I spent less time on MCI project. The reason is that, I, responsible for back end development, has achieved all the required product in back end. And it turns out that back end is developed much faster than front end. There are still some works in back end need to wait until front end can finish something. So I expect next week front end members can make some progress so that the back end can continue.</t>
+    <t>This week I spent less time on MCI project. The reason is that, I, responsible for back end development, has achieved all the required product in back end during midbreak. And it turns out that back end is developed much faster than front end. There are still some works in back end need to wait until front end can finish something. So I expect next week front end members can make some progress so that the back end can continue.</t>
   </si>
 </sst>
 </file>
@@ -424,6 +424,9 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -444,9 +447,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -794,7 +794,7 @@
   <dimension ref="A2:AW22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -810,16 +810,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:49" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -1019,10 +1019,10 @@
       <c r="AW7" s="5"/>
     </row>
     <row r="8" spans="1:49" s="6" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="29">
         <v>44678</v>
       </c>
       <c r="C8" s="16">
@@ -1031,7 +1031,7 @@
       <c r="D8" s="16">
         <v>0.50694444444444442</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="31">
         <v>5</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -1086,15 +1086,15 @@
       <c r="AW8" s="5"/>
     </row>
     <row r="9" spans="1:49" s="6" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="16">
         <v>0.125</v>
       </c>
       <c r="D9" s="16">
         <v>0.18055555555555555</v>
       </c>
-      <c r="E9" s="31"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="21" t="s">
         <v>35</v>
       </c>
@@ -1147,10 +1147,10 @@
       <c r="AW9" s="5"/>
     </row>
     <row r="10" spans="1:49" s="6" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="29">
         <v>44679</v>
       </c>
       <c r="C10" s="16">
@@ -1159,7 +1159,7 @@
       <c r="D10" s="16">
         <v>0.5</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="31">
         <v>1.3</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -1214,15 +1214,15 @@
       <c r="AW10" s="5"/>
     </row>
     <row r="11" spans="1:49" s="6" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="16">
         <v>0.58333333333333337</v>
       </c>
       <c r="D11" s="16">
         <v>0.59513888888888888</v>
       </c>
-      <c r="E11" s="31"/>
+      <c r="E11" s="32"/>
       <c r="F11" s="7" t="s">
         <v>32</v>
       </c>
@@ -1416,10 +1416,10 @@
         <f>SUM(E6:E13)</f>
         <v>15.3</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="33"/>
+      <c r="G14" s="26"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1428,28 +1428,28 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" spans="6:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="22" spans="6:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
